--- a/output/19_learn_rate_0.002/full.xlsx
+++ b/output/19_learn_rate_0.002/full.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,13 +468,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.002</v>
+        <v>0.0001</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E2" t="n">
         <v>200</v>
@@ -491,40 +491,168 @@
         <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001</v>
+        <v>0.002</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0.98580002784729</v>
+        <v>0.9980000257492065</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9679999947547913</v>
+        <v>0.9937000274658203</v>
       </c>
       <c r="M2" t="n">
-        <v>238.105</v>
+        <v>105.559</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0041</v>
+        <v>0.0095</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0041</v>
+        <v>0.0094</v>
       </c>
       <c r="P2" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.803</v>
+        <v>7.54</v>
       </c>
       <c r="R2" t="n">
-        <v>0.98580002784729</v>
+        <v>0.9962999820709229</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9818999767303467</v>
+        <v>0.9950000047683716</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9818999767303467</v>
+        <v>0.9957000017166138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>200</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>('tanh', 'relu')</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>100</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9993000030517578</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.9973999857902527</v>
+      </c>
+      <c r="M3" t="n">
+        <v>166.16</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="P3" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>7.9124</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.998199999332428</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.9947999715805054</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.9980999827384949</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>200</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>('tanh', 'relu')</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9987999796867371</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.9965999722480774</v>
+      </c>
+      <c r="M4" t="n">
+        <v>167.571</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0059</v>
+      </c>
+      <c r="P4" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>8.8195</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.9973000288009644</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.9965999722480774</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.9977999925613403</v>
       </c>
     </row>
   </sheetData>
